--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\15-Sept-2023batch\opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\seleniumwebdriver\OpencartV121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD60-ACC2-4D41-9A18-B0F87EEF7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0BF4EA-6907-44DB-9464-F4EA9104AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="17589" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,9 +168,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -192,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,17 +488,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.23046875" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="3" width="18.15234375" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -520,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -542,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -556,14 +553,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
